--- a/รายการจัดส่งข้าวขวัญ-2021-12-06.xlsx
+++ b/รายการจัดส่งข้าวขวัญ-2021-12-06.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>เลขที่</t>
   </si>
@@ -32,6 +32,78 @@
   </si>
   <si>
     <t>จำนวน(กล่อง)</t>
+  </si>
+  <si>
+    <t>2021120511503291</t>
+  </si>
+  <si>
+    <t>2021-12-06T06:51:30.729+07:00</t>
+  </si>
+  <si>
+    <t> นาย สมชาย เชื้อนานนท์</t>
+  </si>
+  <si>
+    <t>0810528800</t>
+  </si>
+  <si>
+    <t>สมชาย เชื้อนานนท์ MD</t>
+  </si>
+  <si>
+    <t>101 คลินิกเด็กหมอสมชาย เฟื่องนคร ในเมือง อำเภอเมืองนครพนม นครพนม 48000</t>
+  </si>
+  <si>
+    <t>2021120511471588</t>
+  </si>
+  <si>
+    <t>2021-12-06T06:48:12.627+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว ศศิร์อร วิชัย</t>
+  </si>
+  <si>
+    <t>0895699799</t>
+  </si>
+  <si>
+    <t>ปุ๊ (phone)</t>
+  </si>
+  <si>
+    <t>เลขที่ 180/764 หมู่บ้านเดอะคิทท์ติวานนท์ หมู่ 5  ติวานนท์ ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
+  </si>
+  <si>
+    <t>2021120511451783</t>
+  </si>
+  <si>
+    <t>2021-12-06T06:48:22.908+07:00</t>
+  </si>
+  <si>
+    <t> นาง ขนิษฐา เอาชนะกิจ</t>
+  </si>
+  <si>
+    <t>0815816978</t>
+  </si>
+  <si>
+    <t>Kanitha</t>
+  </si>
+  <si>
+    <t>ซอยวชิรธรรมสาธิต37 สุขุมวิท101/1 บางจาก พระโขนง กรุงเทพฯ 10260</t>
+  </si>
+  <si>
+    <t>2021120511431558</t>
+  </si>
+  <si>
+    <t>2021-12-06T06:46:13.055+07:00</t>
+  </si>
+  <si>
+    <t> นาย ณรงค์​ สินย​บุตร​</t>
+  </si>
+  <si>
+    <t>0846720902</t>
+  </si>
+  <si>
+    <t>Narong</t>
+  </si>
+  <si>
+    <t>670ซอย​รังสิต​-นครนายก​2​  ประชาธิป​ั​ตย์​ ธัญบุรี​ ปทุมธานี​ 12130</t>
   </si>
   <si>
     <t>2021120511354547</t>
@@ -107,7 +179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -156,7 +228,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -179,6 +251,98 @@
         <v>18</v>
       </c>
       <c r="G3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>2</v>
       </c>
     </row>

--- a/รายการจัดส่งข้าวขวัญ-2021-12-06.xlsx
+++ b/รายการจัดส่งข้าวขวัญ-2021-12-06.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
   <si>
     <t>เลขที่</t>
   </si>
@@ -34,6 +34,792 @@
     <t>จำนวน(กล่อง)</t>
   </si>
   <si>
+    <t>2021120604443376</t>
+  </si>
+  <si>
+    <t>2021-12-06T23:46:24.075+07:00</t>
+  </si>
+  <si>
+    <t> นาง รำไพ วัชรปาณ</t>
+  </si>
+  <si>
+    <t>0817906423</t>
+  </si>
+  <si>
+    <t>Noidoksom</t>
+  </si>
+  <si>
+    <t>เลขที่ 142  ถนนชุมพล ในเมือง เมือง นครราชสีมา 30000</t>
+  </si>
+  <si>
+    <t>2021120602432057</t>
+  </si>
+  <si>
+    <t>2021-12-06T21:44:33.962+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว ทิพย์วรรณ โชคชัย</t>
+  </si>
+  <si>
+    <t>0816329717</t>
+  </si>
+  <si>
+    <t>TipTaone</t>
+  </si>
+  <si>
+    <t>189/2 หมู่1  ถนนลาดกระบัง 54 เยื้องปั๊ม ปตท เลยแยกวัดหัวคู้  หนองปรือ อำเภอบางพลี สมุทรปราการ 10540</t>
+  </si>
+  <si>
+    <t>2021120602215433</t>
+  </si>
+  <si>
+    <t>2021-12-06T21:24:12.335+07:00</t>
+  </si>
+  <si>
+    <t> นาย วัชรินทร์ ภุมราดี</t>
+  </si>
+  <si>
+    <t>0859836652</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>22/3 พัฒนาการคูขวาง ในเมือง อำเภอเมืองนครศรีธรรมราช นครศรีธรรมราช 80000</t>
+  </si>
+  <si>
+    <t>2021120601471542</t>
+  </si>
+  <si>
+    <t>2021-12-06T20:49:49.892+07:00</t>
+  </si>
+  <si>
+    <t> นาง ชวาลินพรรณ ปาลินทร</t>
+  </si>
+  <si>
+    <t>0809915066</t>
+  </si>
+  <si>
+    <t>Poojai</t>
+  </si>
+  <si>
+    <t>82  หมู่ 2  บ้านกุดแคน - ดงกลาง คอนสาร ชัยภูมิ 36180</t>
+  </si>
+  <si>
+    <t>2021120601101977</t>
+  </si>
+  <si>
+    <t>2021-12-06T20:23:32.097+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว วันดี พงษ์อุดมปัญญา</t>
+  </si>
+  <si>
+    <t>0867332502</t>
+  </si>
+  <si>
+    <t>wendy</t>
+  </si>
+  <si>
+    <t>67ซอยพระรามที่2ซอย50 พระรามที่2 แสมดำ เขตบางขุนเทียน กรุงเทพมหานคร 10150</t>
+  </si>
+  <si>
+    <t>2021120612402496</t>
+  </si>
+  <si>
+    <t>2021-12-06T19:42:49.744+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว ฌาณิศา ฤกษ์ประสพผล</t>
+  </si>
+  <si>
+    <t>0868967559</t>
+  </si>
+  <si>
+    <t>Chanisa</t>
+  </si>
+  <si>
+    <t>8 สรณคมน์ 20 แยก1 สีกัน เขตดอนเมือง กรุงเทพมหานคร 10210</t>
+  </si>
+  <si>
+    <t>2021120611522735</t>
+  </si>
+  <si>
+    <t>2021-12-06T19:03:17.921+07:00</t>
+  </si>
+  <si>
+    <t> นาง กนกลักษณ์ ศิริโรจน์</t>
+  </si>
+  <si>
+    <t>0814218711</t>
+  </si>
+  <si>
+    <t>Kanokluk</t>
+  </si>
+  <si>
+    <t>2|1 ซอยพหลโยธิน24แยก8-2 พหลโยธิน จอมพล เขตจตุจักร กรุงเทพมหานคร 10900</t>
+  </si>
+  <si>
+    <t>2021120610211967</t>
+  </si>
+  <si>
+    <t>2021-12-06T17:22:28.664+07:00</t>
+  </si>
+  <si>
+    <t> น.ส. ดาวรุ่ง ยิ้มใย</t>
+  </si>
+  <si>
+    <t>0918394132</t>
+  </si>
+  <si>
+    <t>Lek</t>
+  </si>
+  <si>
+    <t>98/6 หมู่10 สวรรคโลก - ศรีสีชนาลัย ท่าชัย ศรีสัชนาลัย สุโขทัย 64190</t>
+  </si>
+  <si>
+    <t>2021120610000929</t>
+  </si>
+  <si>
+    <t>2021-12-06T17:02:35.920+07:00</t>
+  </si>
+  <si>
+    <t> น.ส. มณีรัตน์ คิดมงคล</t>
+  </si>
+  <si>
+    <t>0895349701</t>
+  </si>
+  <si>
+    <t>🍀🍁 MANEERAT 🎡❄</t>
+  </si>
+  <si>
+    <t>172/6 จรัญสนิทวงศ์ บ้านช่างหล่อ เขตบางกอกน้อย กรุงเทพมหานคร 10700</t>
+  </si>
+  <si>
+    <t>2021120609371853</t>
+  </si>
+  <si>
+    <t>2021-12-06T17:47:17.860+07:00</t>
+  </si>
+  <si>
+    <t> นาง จินตนา ตรีเงิน อรรคศรีวร</t>
+  </si>
+  <si>
+    <t>0819307365</t>
+  </si>
+  <si>
+    <t>Jintana T Akasriworn</t>
+  </si>
+  <si>
+    <t>2 โรงพยาบาลราชวิถี  ทุ่งพญาไท เขตราชเทวี กรุงเทพมหานคร 10400</t>
+  </si>
+  <si>
+    <t>2021120609245797</t>
+  </si>
+  <si>
+    <t>2021-12-06T16:30:04.184+07:00</t>
+  </si>
+  <si>
+    <t> นาง โชติกา อภิวิชญ์พรพงศ์</t>
+  </si>
+  <si>
+    <t>0902462565</t>
+  </si>
+  <si>
+    <t>chotika..7824</t>
+  </si>
+  <si>
+    <t>เลขที่ 99/1326 หมู่บ้านนักกีฬาแหลมทอง  ถนนกรุงเทพกรีฑา สะพานสูง สะพานสูง กรุงเทพมหานคร 10250</t>
+  </si>
+  <si>
+    <t>2021120609154006</t>
+  </si>
+  <si>
+    <t>2021-12-06T16:17:04.037+07:00</t>
+  </si>
+  <si>
+    <t> นาย กฤษณะ อักษรนิตย์</t>
+  </si>
+  <si>
+    <t>0816911877</t>
+  </si>
+  <si>
+    <t>Kritsana</t>
+  </si>
+  <si>
+    <t>8/23 หมู่บ้าน ลักกี้โฮม พัฒนาการ พัฒนาการ-คูขวาง ในเมือง อำเภอเมืองนครศรีธรรมราช นครศรีธรรมราช 80000</t>
+  </si>
+  <si>
+    <t>2021120608393822</t>
+  </si>
+  <si>
+    <t>2021-12-06T15:41:38.296+07:00</t>
+  </si>
+  <si>
+    <t> นาง กรรณิการ์ อุโฆษกุล</t>
+  </si>
+  <si>
+    <t>0815832991</t>
+  </si>
+  <si>
+    <t>Kannika Uk</t>
+  </si>
+  <si>
+    <t>79/368 รามคำแหง ราษฎร์พัฒนา สะพานสูง กรุงเทพ 10240</t>
+  </si>
+  <si>
+    <t>2021120608252230</t>
+  </si>
+  <si>
+    <t>2021-12-06T15:31:38.458+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว ศิริพร กิจคุณี</t>
+  </si>
+  <si>
+    <t>0861346657</t>
+  </si>
+  <si>
+    <t>เก่ง</t>
+  </si>
+  <si>
+    <t>13/3 ม.3  ทางช้าง อำเภอบางบาล พระนครศรีอยุธยา 13250</t>
+  </si>
+  <si>
+    <t>2021120607455120</t>
+  </si>
+  <si>
+    <t>2021-12-06T14:47:11.890+07:00</t>
+  </si>
+  <si>
+    <t> นาง  นาง ปกิตตา ลาภภัทรนันท์</t>
+  </si>
+  <si>
+    <t>0815460302</t>
+  </si>
+  <si>
+    <t>เจี๊ยบ😄</t>
+  </si>
+  <si>
+    <t>767 คิดตะเสน โพธิ์ชัย อำเภอเมืองหนองคาย หนองคาย 43000</t>
+  </si>
+  <si>
+    <t>2021120607335534</t>
+  </si>
+  <si>
+    <t>2021-12-06T14:35:30.321+07:00</t>
+  </si>
+  <si>
+    <t> นส พันธุ์หงษ์ บุริสตระกูล</t>
+  </si>
+  <si>
+    <t>0926264655</t>
+  </si>
+  <si>
+    <t>Panhong</t>
+  </si>
+  <si>
+    <t>91/79 หมู่บ้านโฮมเพลส รังสิต ซอย4 เลียบคลองเปรมประชา บางพูน เมือง ปทุมธานี 12000</t>
+  </si>
+  <si>
+    <t>2021120605585636</t>
+  </si>
+  <si>
+    <t>2021-12-06T13:07:15.923+07:00</t>
+  </si>
+  <si>
+    <t> คุณ ธัญพร จันทร์แจ่ม</t>
+  </si>
+  <si>
+    <t>0627172992</t>
+  </si>
+  <si>
+    <t>Missbij</t>
+  </si>
+  <si>
+    <t>12/62 มาเจริญ หนองแขม หนองแขม กรุงเทพ 10160</t>
+  </si>
+  <si>
+    <t>2021120605445063</t>
+  </si>
+  <si>
+    <t>2021-12-06T12:50:09.553+07:00</t>
+  </si>
+  <si>
+    <t> คุณ สำรวม สุทธิสาคร</t>
+  </si>
+  <si>
+    <t>0815506765</t>
+  </si>
+  <si>
+    <t>Wilawan Ananchai</t>
+  </si>
+  <si>
+    <t>21 หมู่ 8 - ตำบล บ่อพุ อำเภอท่าใหม่ จันทบุรี 22120</t>
+  </si>
+  <si>
+    <t>2021120605173720</t>
+  </si>
+  <si>
+    <t>2021-12-06T12:19:09.858+07:00</t>
+  </si>
+  <si>
+    <t> นส.  วรพธู​ ไทยเหนือ​</t>
+  </si>
+  <si>
+    <t>0855542942</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>71/488 หมู่​4, มบ.เมือง​เอก  หลักหก เมืือง ปทุมธานี​ 12000</t>
+  </si>
+  <si>
+    <t>2021120604463017</t>
+  </si>
+  <si>
+    <t>2021-12-06T11:47:56.438+07:00</t>
+  </si>
+  <si>
+    <t> น.ส สุพิศ สุวรรณขาว</t>
+  </si>
+  <si>
+    <t>0997101967</t>
+  </si>
+  <si>
+    <t>Supis Suwannakoaw</t>
+  </si>
+  <si>
+    <t>APEX 159ม.6  มาบยางพร ปลวกแดง ระยอง 21140</t>
+  </si>
+  <si>
+    <t>2021120604415209</t>
+  </si>
+  <si>
+    <t>2021-12-06T11:46:01.235+07:00</t>
+  </si>
+  <si>
+    <t> นาย โกศล อ่ำสุข</t>
+  </si>
+  <si>
+    <t>0870160681</t>
+  </si>
+  <si>
+    <t>เอ้ Enjoy Giving</t>
+  </si>
+  <si>
+    <t>129 หมู่ 13  บางภาษี อำเภอบางเลน นครปฐม 73130</t>
+  </si>
+  <si>
+    <t>2021120604031890</t>
+  </si>
+  <si>
+    <t>2021-12-06T11:05:16.136+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว อารีรัตน์ ทองที</t>
+  </si>
+  <si>
+    <t>0868376677</t>
+  </si>
+  <si>
+    <t>NamTaan ไม่หวาน</t>
+  </si>
+  <si>
+    <t>null     </t>
+  </si>
+  <si>
+    <t>2021120603480059</t>
+  </si>
+  <si>
+    <t>2021-12-06T10:50:00.174+07:00</t>
+  </si>
+  <si>
+    <t> นาย ธวัชชัย ภู่วชิรานนท์</t>
+  </si>
+  <si>
+    <t>0814942616</t>
+  </si>
+  <si>
+    <t>Tawatchai Poovachira</t>
+  </si>
+  <si>
+    <t>23 หมู่ที่8 บ้านไร่พัฒนา - แม่ปูคา สันกำแพง เชียงใหม่ 50130</t>
+  </si>
+  <si>
+    <t>2021120603335367</t>
+  </si>
+  <si>
+    <t>2021-12-06T10:35:51.870+07:00</t>
+  </si>
+  <si>
+    <t> นาย ไพบูลย์ เตชะกัมพลสารกิจ</t>
+  </si>
+  <si>
+    <t>0858150883</t>
+  </si>
+  <si>
+    <t>paiboon paik</t>
+  </si>
+  <si>
+    <t>88​ หมู่บ้านแกรนด์วิลเลจ​ ซอยลาดพร้าว​ 80/3 ลาดพร้าว วังทองหลาง วังทองหลาง กทม 10310</t>
+  </si>
+  <si>
+    <t>2021120603163348</t>
+  </si>
+  <si>
+    <t>2021-12-06T10:18:58.261+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว ลัดดา สมศิริพรชัย</t>
+  </si>
+  <si>
+    <t>0818440420</t>
+  </si>
+  <si>
+    <t>Ladda</t>
+  </si>
+  <si>
+    <t>22/21 หมู่บ้านลัดดารมย์ อิลิแกนซ์ ราชพฤกษ์ อ้อมเกร็ด อำเภอปากเกร็ด นนทบุรี 11120</t>
+  </si>
+  <si>
+    <t>2021120603145799</t>
+  </si>
+  <si>
+    <t>2021-12-06T10:15:42.958+07:00</t>
+  </si>
+  <si>
+    <t> นาย เทียนชัย ไพฑูรย์วงศ์วีระ</t>
+  </si>
+  <si>
+    <t>0813063355</t>
+  </si>
+  <si>
+    <t>Tienchai</t>
+  </si>
+  <si>
+    <t>1/1 ซอยลาดพร้าว 101 แยก 53 ลาดพร้าว คลองจั่น เขตบางกะปิ กรุงเทพมหานคร 10240</t>
+  </si>
+  <si>
+    <t>2021120603071720</t>
+  </si>
+  <si>
+    <t>2021-12-06T10:10:24.480+07:00</t>
+  </si>
+  <si>
+    <t> นาง เพ็ญแข เชาว์ภาษี</t>
+  </si>
+  <si>
+    <t>0898662275</t>
+  </si>
+  <si>
+    <t>เพ็ญแข เชาว์ภาษี</t>
+  </si>
+  <si>
+    <t>1  หมู่ 6 กะโรม- นาเคียน นาเคียน อำเภอเมืองนครศรีธรรมราช นครศรีธรรมราช 80000</t>
+  </si>
+  <si>
+    <t>2021120602483787</t>
+  </si>
+  <si>
+    <t>2021-12-06T09:49:08.280+07:00</t>
+  </si>
+  <si>
+    <t> นส พนมพร เฉลิมชาติ</t>
+  </si>
+  <si>
+    <t>0885947770</t>
+  </si>
+  <si>
+    <t>noi</t>
+  </si>
+  <si>
+    <t>271/4 ซอย 5 วารีราชเดช ในเมือง อำเภอเมืองยโสธร ยโสธร 35000</t>
+  </si>
+  <si>
+    <t>2021120602432815</t>
+  </si>
+  <si>
+    <t>2021-12-06T09:47:36.360+07:00</t>
+  </si>
+  <si>
+    <t> นส. ธัญรัศฌิ์ มหาวงศนันท์</t>
+  </si>
+  <si>
+    <t>0845259273</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1/76 ม.7 ซ.กิ่งแก้ว56/1 กิ่งแก้ว ราชาเทวะ อำเภอบางพลี สมุทรปราการ 10540</t>
+  </si>
+  <si>
+    <t>2021120602351239</t>
+  </si>
+  <si>
+    <t>2021-12-06T09:37:25.301+07:00</t>
+  </si>
+  <si>
+    <t> นส นฤมล สือวงศ์ประยูร</t>
+  </si>
+  <si>
+    <t>0886858844</t>
+  </si>
+  <si>
+    <t>boom sue4289</t>
+  </si>
+  <si>
+    <t>940 พระราม2 จอมทอง เขตจอมทอง กรุงเทพมหานคร 10150</t>
+  </si>
+  <si>
+    <t>2021120602330959</t>
+  </si>
+  <si>
+    <t>2021-12-06T09:35:04.279+07:00</t>
+  </si>
+  <si>
+    <t> คุณ ณัฐิกา นิร์เอกธนา</t>
+  </si>
+  <si>
+    <t>0889941626</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>168 หมู่ 2 กรุงเทพฯ-ปทุมฯ บางเดื่อ อำเภอเมืองปทุมธานี ปทุมธานี 12000</t>
+  </si>
+  <si>
+    <t>2021120602240871</t>
+  </si>
+  <si>
+    <t>2021-12-06T09:48:23.289+07:00</t>
+  </si>
+  <si>
+    <t> นส. พรรณทิพา ฉัตรชาตรี</t>
+  </si>
+  <si>
+    <t>0992191311</t>
+  </si>
+  <si>
+    <t>หอพักพัฒนาคณาจารย์   รพ. จุฬาลงกรณ์  ห้อง 2306 พระราม 4 วังใหม่ ปทุมวัน กรุงเทพ 10330</t>
+  </si>
+  <si>
+    <t>2021120602121736</t>
+  </si>
+  <si>
+    <t>2021-12-06T09:13:27.949+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว ณัฐธร จารุพิศาลเลิศ</t>
+  </si>
+  <si>
+    <t>0813738988</t>
+  </si>
+  <si>
+    <t>Nutthathorn J.</t>
+  </si>
+  <si>
+    <t>5/551 หมู่ 9 หมู่บ้านประชานิเวศน์ 2ระยะ3 ซอย10 สามัคคี บางตลาด อำเภอปากเกร็ด นนทบุรี 11120</t>
+  </si>
+  <si>
+    <t>2021120602084173</t>
+  </si>
+  <si>
+    <t>2021-12-06T09:10:57.557+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว จินตนา อมรามร</t>
+  </si>
+  <si>
+    <t>0937652513</t>
+  </si>
+  <si>
+    <t>Chin</t>
+  </si>
+  <si>
+    <t>13/2 หมู่ 7 หลัง ธ.ออมสิน ตรงข้ามร้านกะทิ บ้านสีฟ้า บางสน อำเภอปะทิว ชุมพร 86160</t>
+  </si>
+  <si>
+    <t>2021120601411696</t>
+  </si>
+  <si>
+    <t>2021-12-06T08:42:09.629+07:00</t>
+  </si>
+  <si>
+    <t> นาย โกศล เอี่ยมวิถีวนิช</t>
+  </si>
+  <si>
+    <t>0819756073</t>
+  </si>
+  <si>
+    <t>kosol</t>
+  </si>
+  <si>
+    <t>เลขที่ 46/3  ถนนร่วมจิตร กุดป่อง เมือง เลย 42000</t>
+  </si>
+  <si>
+    <t>2021120601031124</t>
+  </si>
+  <si>
+    <t>2021-12-06T08:04:26.582+07:00</t>
+  </si>
+  <si>
+    <t> นาย คลาด ศรีวิลัย</t>
+  </si>
+  <si>
+    <t>0830672749</t>
+  </si>
+  <si>
+    <t>124 ม.1  ลานสกา อำเภอลานสกา นครศรีธรรมราช 80230</t>
+  </si>
+  <si>
+    <t>2021120612580444</t>
+  </si>
+  <si>
+    <t>2021-12-06T08:03:47.851+07:00</t>
+  </si>
+  <si>
+    <t> นาง วรัญญา โนนม่วง</t>
+  </si>
+  <si>
+    <t>0864606716</t>
+  </si>
+  <si>
+    <t>warunya</t>
+  </si>
+  <si>
+    <t>94/200 ม.ศิลาพรวิลล์ 2 ซอยสุพัณวินี 14 ญาณวิโรจน์ เกาะขวาง อำเภอเมืองจันทบุรี จันทบุรี 22000</t>
+  </si>
+  <si>
+    <t>2021120612561129</t>
+  </si>
+  <si>
+    <t>2021-12-06T07:57:04.448+07:00</t>
+  </si>
+  <si>
+    <t> นาง สุธิดา ภิญโญจรัสแสง</t>
+  </si>
+  <si>
+    <t>0818117333</t>
+  </si>
+  <si>
+    <t>Ju Suthida *</t>
+  </si>
+  <si>
+    <t>143/33 หมู่บ้านเศรษฐีปาร์ค ซอยอ่อนนุช 17 สุขุมวิท สวนหลวง เขตสวนหลวง กรุงเทพมหานคร 10250</t>
+  </si>
+  <si>
+    <t>2021120612425213</t>
+  </si>
+  <si>
+    <t>2021-12-06T07:43:55.925+07:00</t>
+  </si>
+  <si>
+    <t> นส. มาลี พร้อมเพรียงชัย</t>
+  </si>
+  <si>
+    <t>0955420261</t>
+  </si>
+  <si>
+    <t>เจ๊น้อง 💒💒💒</t>
+  </si>
+  <si>
+    <t>บิ๊กซี  ทับเที่ยง อำเภอเมืองตรัง ตรัง 92000</t>
+  </si>
+  <si>
+    <t>2021120612411661</t>
+  </si>
+  <si>
+    <t>2021-12-06T07:43:57.193+07:00</t>
+  </si>
+  <si>
+    <t> นาง ชลธิชา ธารจิราธนากร</t>
+  </si>
+  <si>
+    <t>0616691239</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>18 หมู่ 7  ท่าตะคร้อ อำเภอท่าม่วง กาญจนบุรี 71130</t>
+  </si>
+  <si>
+    <t>2021120612360426</t>
+  </si>
+  <si>
+    <t>2021-12-06T07:52:07.684+07:00</t>
+  </si>
+  <si>
+    <t> นาง พราภัย อาจคุ้มวงษ์</t>
+  </si>
+  <si>
+    <t>0855956244</t>
+  </si>
+  <si>
+    <t>_Parapai arj 😊</t>
+  </si>
+  <si>
+    <t>33/8​  ซอย​แจ้งวัฒนะ​ปากเกร็ด​23​ แจ้ง​วัฒนะ​ บางพูด อำเภอปากเกร็ด นนทบุรี 11120</t>
+  </si>
+  <si>
+    <t>2021120612295245</t>
+  </si>
+  <si>
+    <t>2021-12-06T07:30:26.334+07:00</t>
+  </si>
+  <si>
+    <t> นาย นิธิศ ศิวดลธรากุล</t>
+  </si>
+  <si>
+    <t>0955299444</t>
+  </si>
+  <si>
+    <t>PigsPic</t>
+  </si>
+  <si>
+    <t>77/153/หมู่บ้านเดอะโมดิช/ซอย12 วัดท่าเกวียน คลองพระอุดม ลาดหลุมแก้ว ปทุมธานี 12140</t>
+  </si>
+  <si>
+    <t>2021120612160837</t>
+  </si>
+  <si>
+    <t>2021-12-06T07:21:37.009+07:00</t>
+  </si>
+  <si>
+    <t> นาย ขาล บ้านไร่</t>
+  </si>
+  <si>
+    <t>0800693095</t>
+  </si>
+  <si>
+    <t>Khal Phanawut</t>
+  </si>
+  <si>
+    <t>6/5หมู่8 ซอยฟาร์มปอม  วัดประดู่ อำเภออัมพวา สมุทรสงคราม 75110</t>
+  </si>
+  <si>
+    <t>2021120612050305</t>
+  </si>
+  <si>
+    <t>2021-12-06T08:38:33.515+07:00</t>
+  </si>
+  <si>
+    <t> นาง นนลพร ฟักฉิม</t>
+  </si>
+  <si>
+    <t>0834299429</t>
+  </si>
+  <si>
+    <t>DII</t>
+  </si>
+  <si>
+    <t>20/716 ซ.25 หมู่บ้านวรารักษ์ เลียบคลองสอง 27 สามวาตะวันตก เขตคลองสามวา กรุงเทพมหานคร 10510</t>
+  </si>
+  <si>
     <t>2021120511503291</t>
   </si>
   <si>
@@ -140,6 +926,24 @@
   </si>
   <si>
     <t>282/92 หมู่บ้านพาทิโอ-พระราม 2 ซอย 33 (วัดยายร่ม)​ พระราม 2 บางมด เขตจอมทอง กรุงเทพมหานคร 10150</t>
+  </si>
+  <si>
+    <t>2021120511340116</t>
+  </si>
+  <si>
+    <t>2021-12-06T10:31:01.695+07:00</t>
+  </si>
+  <si>
+    <t> นาง วิริยาภรณ์ บัญญัติเลิศถาวร</t>
+  </si>
+  <si>
+    <t>0867939115</t>
+  </si>
+  <si>
+    <t>เป๊กกี้</t>
+  </si>
+  <si>
+    <t>เลขที่ 55/185 หมู่บ้านพลีโน่สุขสวัสดิ์ 66  สุขสวัสดิ์ บางครุ พระประแดง สมุทรปราการ 10130</t>
   </si>
 </sst>
 </file>
@@ -179,7 +983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -228,7 +1032,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -251,7 +1055,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -274,7 +1078,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -320,7 +1124,7 @@
         <v>36</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -343,7 +1147,1042 @@
         <v>42</v>
       </c>
       <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
